--- a/lab6_cache/utils/translation.xlsx
+++ b/lab6_cache/utils/translation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stkd3\Desktop\3-1\Computer Architecture\Lab\lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stkd3\Desktop\3-1\Computer Architecture\Lab\lab6_cache\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="287">
   <si>
     <t>0. pc &lt;- 35</t>
   </si>
@@ -857,10 +857,6 @@
   </si>
   <si>
     <t>$1 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨발!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1388,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4823,7 +4819,7 @@
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -4843,7 +4839,7 @@
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -4863,7 +4859,7 @@
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -4883,7 +4879,7 @@
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -4903,7 +4899,7 @@
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -5034,7 +5030,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -5068,9 +5064,7 @@
         <v>189</v>
       </c>
       <c r="C176" s="2"/>
-      <c r="D176" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -5092,7 +5086,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -5102,19 +5096,19 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -5134,7 +5128,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -5154,7 +5148,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -5174,7 +5168,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -5194,7 +5188,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -5225,11 +5219,11 @@
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -5249,7 +5243,7 @@
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -5269,7 +5263,7 @@
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -5282,14 +5276,14 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -5309,7 +5303,7 @@
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -5322,7 +5316,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>208</v>
@@ -5394,7 +5388,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>208</v>
@@ -5412,7 +5406,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>211</v>
